--- a/input/IT/time_series_factor.xlsx
+++ b/input/IT/time_series_factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071A718-E511-FD4F-AF08-422FC9F32912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A4ACEA-3707-1A43-AC61-0DC6DFEA15E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" tabRatio="973" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17680" yWindow="500" windowWidth="20720" windowHeight="19680" tabRatio="973" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,16 @@
     <sheet name="cohabitation_adjustment" sheetId="15" r:id="rId5"/>
     <sheet name="fertility_adjustment" sheetId="19" r:id="rId6"/>
     <sheet name="utility_adj_smales" sheetId="16" r:id="rId7"/>
-    <sheet name="utility_adj_sfemales" sheetId="17" r:id="rId8"/>
-    <sheet name="utility_adj_all" sheetId="26" r:id="rId9"/>
-    <sheet name="utility_adj_couples" sheetId="18" r:id="rId10"/>
-    <sheet name="gdp" sheetId="20" r:id="rId11"/>
-    <sheet name="inflation" sheetId="21" r:id="rId12"/>
-    <sheet name="wage_growth" sheetId="22" r:id="rId13"/>
+    <sheet name="utility_adj_acmales" sheetId="27" r:id="rId8"/>
+    <sheet name="utility_adj_sfemales" sheetId="17" r:id="rId9"/>
+    <sheet name="utility_adj_acfemales" sheetId="28" r:id="rId10"/>
+    <sheet name="utility_adj_malewdep" sheetId="29" r:id="rId11"/>
+    <sheet name="utility_adj_femalewdep" sheetId="30" r:id="rId12"/>
+    <sheet name="utility_adj_all" sheetId="26" r:id="rId13"/>
+    <sheet name="utility_adj_couples" sheetId="18" r:id="rId14"/>
+    <sheet name="gdp" sheetId="20" r:id="rId15"/>
+    <sheet name="inflation" sheetId="21" r:id="rId16"/>
+    <sheet name="wage_growth" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -952,6 +956,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270E148E-1A75-374A-BBD9-42C662931589}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72E0293-B6C4-4F46-B04F-F2A6BBD3552A}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC281B3-F44C-A74D-81B1-0E907BBFAC45}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24975FDF-8D77-4D4B-8592-0CCFC0F7BE8F}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -1222,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6812C-5BB0-43F7-B52C-EA13500B4AA8}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -1499,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E899AF-6766-40B7-B849-58604785D824}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -1723,11 +2807,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A47DFC1-F794-4B22-BEC7-BA8732D9DC19}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5502,6 +6586,277 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22BC6D5-06C8-1F41-84E5-F327A8005634}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7429DD-438F-4396-BA37-1ECD20FCD2D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -5770,273 +7125,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24975FDF-8D77-4D4B-8592-0CCFC0F7BE8F}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2036</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2037</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2038</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2039</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2040</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>